--- a/project/Phase 2/Sprint1/Sprint Backlog.xlsx
+++ b/project/Phase 2/Sprint1/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao4\IdeaProjects\SE2122-57672-58175-57957-58210-57911\project\Phase 2\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D90C97-334A-42F3-9C91-D4770AEE79CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0E4A0-BD2F-4770-85A6-2C2502F7B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Subdivide functionality 1 into subtasks.</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
       </rPr>
       <t>in each computer.</t>
     </r>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,6 +359,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -374,32 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -689,7 +689,7 @@
   <dimension ref="C3:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,26 +700,26 @@
   <sheetData>
     <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="14" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>3</v>
+      <c r="C5" s="16" t="s">
+        <v>2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="19"/>
       <c r="J5" s="1"/>
@@ -733,92 +733,92 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="22" t="s">
-        <v>2</v>
-      </c>
       <c r="H7" s="23"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
@@ -826,21 +826,37 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
@@ -849,23 +865,7 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H15" xr:uid="{7956206A-2EFF-4B64-A1C0-B0E2EBA19354}">
